--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.742066</v>
+        <v>6.221859333333334</v>
       </c>
       <c r="H2">
-        <v>17.226198</v>
+        <v>18.665578</v>
       </c>
       <c r="I2">
-        <v>0.2447097919555983</v>
+        <v>0.266168288812213</v>
       </c>
       <c r="J2">
-        <v>0.2447097919555983</v>
+        <v>0.2661682888122131</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6022393333333333</v>
+        <v>0.8467083333333334</v>
       </c>
       <c r="N2">
-        <v>1.806718</v>
+        <v>2.540125</v>
       </c>
       <c r="O2">
-        <v>0.1247313749130817</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="P2">
-        <v>0.1247313749130817</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="Q2">
-        <v>3.458097999796</v>
+        <v>5.268100146361112</v>
       </c>
       <c r="R2">
-        <v>31.122881998164</v>
+        <v>47.41290131725</v>
       </c>
       <c r="S2">
-        <v>0.03052298880531596</v>
+        <v>0.0394529464520701</v>
       </c>
       <c r="T2">
-        <v>0.03052298880531596</v>
+        <v>0.03945294645207011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.742066</v>
+        <v>6.221859333333334</v>
       </c>
       <c r="H3">
-        <v>17.226198</v>
+        <v>18.665578</v>
       </c>
       <c r="I3">
-        <v>0.2447097919555983</v>
+        <v>0.266168288812213</v>
       </c>
       <c r="J3">
-        <v>0.2447097919555983</v>
+        <v>0.2661682888122131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9012106666666667</v>
+        <v>4.865587666666666</v>
       </c>
       <c r="N3">
-        <v>2.703632</v>
+        <v>14.596763</v>
       </c>
       <c r="O3">
-        <v>0.1866521153932185</v>
+        <v>0.8517744295230265</v>
       </c>
       <c r="P3">
-        <v>0.1866521153932185</v>
+        <v>0.8517744295230266</v>
       </c>
       <c r="Q3">
-        <v>5.174811127904</v>
+        <v>30.27300203600155</v>
       </c>
       <c r="R3">
-        <v>46.573300151136</v>
+        <v>272.457018324014</v>
       </c>
       <c r="S3">
-        <v>0.04567560032594683</v>
+        <v>0.2267153423601429</v>
       </c>
       <c r="T3">
-        <v>0.04567560032594683</v>
+        <v>0.226715342360143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.742066</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H4">
-        <v>17.226198</v>
+        <v>20.773973</v>
       </c>
       <c r="I4">
-        <v>0.2447097919555983</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="J4">
-        <v>0.2447097919555983</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.324840666666667</v>
+        <v>0.8467083333333334</v>
       </c>
       <c r="N4">
-        <v>9.974522</v>
+        <v>2.540125</v>
       </c>
       <c r="O4">
-        <v>0.6886165096936998</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="P4">
-        <v>0.6886165096936997</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="Q4">
-        <v>19.091454547484</v>
+        <v>5.863165351847222</v>
       </c>
       <c r="R4">
-        <v>171.823090927356</v>
+        <v>52.768488166625</v>
       </c>
       <c r="S4">
-        <v>0.1685112028243355</v>
+        <v>0.04390940609317053</v>
       </c>
       <c r="T4">
-        <v>0.1685112028243355</v>
+        <v>0.04390940609317055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.924657666666667</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H5">
         <v>20.773973</v>
       </c>
       <c r="I5">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="J5">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6022393333333333</v>
+        <v>4.865587666666666</v>
       </c>
       <c r="N5">
-        <v>1.806718</v>
+        <v>14.596763</v>
       </c>
       <c r="O5">
-        <v>0.1247313749130817</v>
+        <v>0.8517744295230265</v>
       </c>
       <c r="P5">
-        <v>0.1247313749130817</v>
+        <v>0.8517744295230266</v>
       </c>
       <c r="Q5">
-        <v>4.17030121673489</v>
+        <v>33.69252893882211</v>
       </c>
       <c r="R5">
-        <v>37.532710950614</v>
+        <v>303.2327604493989</v>
       </c>
       <c r="S5">
-        <v>0.03680926837836974</v>
+        <v>0.2523242731018222</v>
       </c>
       <c r="T5">
-        <v>0.03680926837836974</v>
+        <v>0.2523242731018223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.924657666666667</v>
+        <v>2.674426</v>
       </c>
       <c r="H6">
-        <v>20.773973</v>
+        <v>8.023277999999999</v>
       </c>
       <c r="I6">
-        <v>0.2951083350441703</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="J6">
-        <v>0.2951083350441703</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9012106666666667</v>
+        <v>0.8467083333333334</v>
       </c>
       <c r="N6">
-        <v>2.703632</v>
+        <v>2.540125</v>
       </c>
       <c r="O6">
-        <v>0.1866521153932185</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="P6">
-        <v>0.1866521153932185</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="Q6">
-        <v>6.240575352215112</v>
+        <v>2.264458781083333</v>
       </c>
       <c r="R6">
-        <v>56.16517816993601</v>
+        <v>20.38012902975</v>
       </c>
       <c r="S6">
-        <v>0.05508259500616507</v>
+        <v>0.01695859390499839</v>
       </c>
       <c r="T6">
-        <v>0.05508259500616507</v>
+        <v>0.0169585939049984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.924657666666667</v>
+        <v>2.674426</v>
       </c>
       <c r="H7">
-        <v>20.773973</v>
+        <v>8.023277999999999</v>
       </c>
       <c r="I7">
-        <v>0.2951083350441703</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="J7">
-        <v>0.2951083350441703</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.324840666666667</v>
+        <v>4.865587666666666</v>
       </c>
       <c r="N7">
-        <v>9.974522</v>
+        <v>14.596763</v>
       </c>
       <c r="O7">
-        <v>0.6886165096936998</v>
+        <v>0.8517744295230265</v>
       </c>
       <c r="P7">
-        <v>0.6886165096936997</v>
+        <v>0.8517744295230266</v>
       </c>
       <c r="Q7">
-        <v>23.02338341287845</v>
+        <v>13.01265416101267</v>
       </c>
       <c r="R7">
-        <v>207.210450715906</v>
+        <v>117.113887449114</v>
       </c>
       <c r="S7">
-        <v>0.2032164716596355</v>
+        <v>0.09745212383032568</v>
       </c>
       <c r="T7">
-        <v>0.2032164716596355</v>
+        <v>0.09745212383032571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.180106333333333</v>
+        <v>7.554716666666667</v>
       </c>
       <c r="H8">
-        <v>6.540318999999999</v>
+        <v>22.66415</v>
       </c>
       <c r="I8">
-        <v>0.09290965434237122</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="J8">
-        <v>0.09290965434237122</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6022393333333333</v>
+        <v>0.8467083333333334</v>
       </c>
       <c r="N8">
-        <v>1.806718</v>
+        <v>2.540125</v>
       </c>
       <c r="O8">
-        <v>0.1247313749130817</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="P8">
-        <v>0.1247313749130817</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="Q8">
-        <v>1.312945784782444</v>
+        <v>6.39664155763889</v>
       </c>
       <c r="R8">
-        <v>11.816512063042</v>
+        <v>57.56977401875</v>
       </c>
       <c r="S8">
-        <v>0.01158874892882314</v>
+        <v>0.04790462402673437</v>
       </c>
       <c r="T8">
-        <v>0.01158874892882314</v>
+        <v>0.04790462402673439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.180106333333333</v>
+        <v>7.554716666666667</v>
       </c>
       <c r="H9">
-        <v>6.540318999999999</v>
+        <v>22.66415</v>
       </c>
       <c r="I9">
-        <v>0.09290965434237122</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="J9">
-        <v>0.09290965434237122</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9012106666666667</v>
+        <v>4.865587666666666</v>
       </c>
       <c r="N9">
-        <v>2.703632</v>
+        <v>14.596763</v>
       </c>
       <c r="O9">
-        <v>0.1866521153932185</v>
+        <v>0.8517744295230265</v>
       </c>
       <c r="P9">
-        <v>0.1866521153932185</v>
+        <v>0.8517744295230266</v>
       </c>
       <c r="Q9">
-        <v>1.964735082067556</v>
+        <v>36.75813623849444</v>
       </c>
       <c r="R9">
-        <v>17.682615738608</v>
+        <v>330.82322614645</v>
       </c>
       <c r="S9">
-        <v>0.01734178352345632</v>
+        <v>0.2752826902307356</v>
       </c>
       <c r="T9">
-        <v>0.01734178352345632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.180106333333333</v>
-      </c>
-      <c r="H10">
-        <v>6.540318999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.09290965434237122</v>
-      </c>
-      <c r="J10">
-        <v>0.09290965434237122</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.324840666666667</v>
-      </c>
-      <c r="N10">
-        <v>9.974522</v>
-      </c>
-      <c r="O10">
-        <v>0.6886165096936998</v>
-      </c>
-      <c r="P10">
-        <v>0.6886165096936997</v>
-      </c>
-      <c r="Q10">
-        <v>7.248506194724222</v>
-      </c>
-      <c r="R10">
-        <v>65.236555752518</v>
-      </c>
-      <c r="S10">
-        <v>0.06397912189009178</v>
-      </c>
-      <c r="T10">
-        <v>0.06397912189009176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>8.617968666666668</v>
-      </c>
-      <c r="H11">
-        <v>25.853906</v>
-      </c>
-      <c r="I11">
-        <v>0.3672722186578602</v>
-      </c>
-      <c r="J11">
-        <v>0.3672722186578602</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.6022393333333333</v>
-      </c>
-      <c r="N11">
-        <v>1.806718</v>
-      </c>
-      <c r="O11">
-        <v>0.1247313749130817</v>
-      </c>
-      <c r="P11">
-        <v>0.1247313749130817</v>
-      </c>
-      <c r="Q11">
-        <v>5.19007970450089</v>
-      </c>
-      <c r="R11">
-        <v>46.710717340508</v>
-      </c>
-      <c r="S11">
-        <v>0.0458103688005729</v>
-      </c>
-      <c r="T11">
-        <v>0.0458103688005729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>8.617968666666668</v>
-      </c>
-      <c r="H12">
-        <v>25.853906</v>
-      </c>
-      <c r="I12">
-        <v>0.3672722186578602</v>
-      </c>
-      <c r="J12">
-        <v>0.3672722186578602</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.9012106666666667</v>
-      </c>
-      <c r="N12">
-        <v>2.703632</v>
-      </c>
-      <c r="O12">
-        <v>0.1866521153932185</v>
-      </c>
-      <c r="P12">
-        <v>0.1866521153932185</v>
-      </c>
-      <c r="Q12">
-        <v>7.766605287399113</v>
-      </c>
-      <c r="R12">
-        <v>69.89944758659202</v>
-      </c>
-      <c r="S12">
-        <v>0.06855213653765031</v>
-      </c>
-      <c r="T12">
-        <v>0.06855213653765031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>8.617968666666668</v>
-      </c>
-      <c r="H13">
-        <v>25.853906</v>
-      </c>
-      <c r="I13">
-        <v>0.3672722186578602</v>
-      </c>
-      <c r="J13">
-        <v>0.3672722186578602</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.324840666666667</v>
-      </c>
-      <c r="N13">
-        <v>9.974522</v>
-      </c>
-      <c r="O13">
-        <v>0.6886165096936998</v>
-      </c>
-      <c r="P13">
-        <v>0.6886165096936997</v>
-      </c>
-      <c r="Q13">
-        <v>28.65337268699245</v>
-      </c>
-      <c r="R13">
-        <v>257.880354182932</v>
-      </c>
-      <c r="S13">
-        <v>0.2529097133196371</v>
-      </c>
-      <c r="T13">
-        <v>0.252909713319637</v>
+        <v>0.2752826902307357</v>
       </c>
     </row>
   </sheetData>
